--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 08:59:29</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 10:41:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 10:41:41</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:30:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:30:11</t>
+    <t>Informação extraída do SIGBM: 06/01/2023 - 11:51:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 06/01/2023 - 11:51:25</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:00:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:00:14</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:21:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:21:48</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:30:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:30:58</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:39:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:39:36</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:48:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:48:48</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:57:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:57:11</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:18:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:18:57</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:33:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:33:52</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:43:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:43:44</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:51:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:51:56</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:03:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:03:04</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:20:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:20:59</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:29:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:29:19</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:38:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:38:21</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:46:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:46:42</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:55:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:55:43</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:14:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:14:54</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:30:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:30:32</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:41:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:41:13</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:49:55</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -767,7 +767,7 @@
     <t>Area M</t>
   </si>
   <si>
-    <t>Cbe Companhia Brasileira de Equipamento Filial: CBE COMPANHIA BRASILEIRA DE EQUIPAMENTO</t>
+    <t>CBE COMPANHIA BRASILEIRA DE EQUIPAMENTO Filial: CBE COMPANHIA BRASILEIRA DE EQUIPAMENTO</t>
   </si>
   <si>
     <t>27.184.936/0007-61</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:49:55</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:58:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:58:51</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:15:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:15:38</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:24:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:24:14</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:33:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:33:03</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:42:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:42:27</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:51:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:51:06</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:00:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:00:19</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:24:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:24:43</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:36:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:36:00</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:44:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:44:15</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:53:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:53:26</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:07:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:07:33</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:21:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:21:23</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:30:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:30:08</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:39:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:39:30</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:48:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:48:07</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:57:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:57:01</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:15:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:15:21</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:28:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:28:29</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:37:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:37:11</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:46:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:46:28</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:54:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:54:57</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:08:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:08:40</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:19:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:19:59</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:28:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:28:41</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:37:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:37:21</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:46:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:46:15</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:54:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:54:40</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 09:19:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 09:19:02</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 09:46:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 09:46:02</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 10:02:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 10:02:12</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 10:23:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 10:23:37</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 10:32:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 10:32:43</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 10:41:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 10:41:40</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 10:50:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 10:50:21</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 10:58:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 10:58:53</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:16:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:16:10</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:26:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:26:26</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:35:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:35:26</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:43:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:43:50</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:53:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:53:00</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:06:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:06:51</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:22:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:22:41</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:32:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:32:03</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:40:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:40:30</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:49:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:49:25</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 12:58:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 12:58:31</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:23:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:23:31</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:40:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234907.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:40:02</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:49:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234907.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:49:04</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 01:57:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 01:57:29</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:14:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:14:00</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:25:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:25:32</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:35:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:35:19</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:43:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:43:37</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 02:52:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 02:52:20</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:06:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:06:59</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:26:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:26:40</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:37:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:37:03</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:46:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:46:05</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 03:54:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 03:54:41</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:08:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:08:24</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:18:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:18:29</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:27:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:27:12</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:36:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:36:17</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:45:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:45:15</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 04:54:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 04:54:08</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:10:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:10:07</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:24:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:24:44</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:34:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:34:31</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:44:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234407.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:44:01</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 05:52:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 05:52:11</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:02:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:02:31</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:17:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:17:38</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:26:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:26:27</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:35:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:35:30</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:45:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235307.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:45:02</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 06:53:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235307.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 06:53:56</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:06:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:06:44</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:22:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233107.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:22:39</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:31:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:31:49</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:40:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235007.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:40:45</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:50:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235007.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:50:54</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 07:58:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235807.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231707.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 07:58:38</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:17:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231707.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:17:19</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:26:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233607.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:26:29</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:36:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233607.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234507.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:36:08</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:45:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-07.xlsx
+++ b/sigbm_download_2023-01-07.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234507.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235407.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 08:45:52</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 08:54:00</t>
   </si>
   <si>
     <t>ID Barragem</t>
